--- a/quizsheets/dsaide_idpatterns.xlsx
+++ b/quizsheets/dsaide_idpatterns.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,30 +370,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AppID</t>
+          <t>TaskID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TaskID</t>
+          <t>RecordID</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RecordID</t>
+          <t>Record</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Record</t>
+          <t>Note</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -410,25 +405,20 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>idpatterns</t>
-        </is>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>T2R1</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>Number susceptibles at end of simulation</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>Number susceptibles at end of simulation (A)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -445,25 +435,20 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>idpatterns</t>
-        </is>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>Number susceptible at end of simulation for _n=2_ and _m=0.002_</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Total number susceptible at end of simulation for _n=2_ and _m=0.002_</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -480,25 +465,20 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>idpatterns</t>
-        </is>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>T3R2</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>T3R2</t>
+          <t>Number susceptible at end of simulation for _n=6_ and _m=0.003_</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>Total number susceptible at end of simulation for _n=6_ and _m=0.003_</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -515,25 +495,20 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>idpatterns</t>
-        </is>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>6</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>T6R1</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>T6R1</t>
+          <t>Number of susceptible at end of simulation, 10 months immunity</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Number of susceptible at end of simulation, 10 months immunity</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -550,25 +525,20 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>idpatterns</t>
-        </is>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>6</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>T6R2</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>T6R2</t>
+          <t>Number of infected at end of simulation, 10 months immunity</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>Number of infected at end of simulation, 10 months immunity</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -585,25 +555,20 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>idpatterns</t>
-        </is>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>T6R3</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>T6R3</t>
+          <t>Number of susceptible at end of simulation, 20 months immunity</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>Number of susceptible at end of simulation, 20 months immunity</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -620,25 +585,20 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>idpatterns</t>
-        </is>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>6</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>T6R4</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>T6R4</t>
+          <t>Number of infected at end of simulation, 20 months immunity</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>Number of infected at end of simulation, 20 months immunity</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -655,25 +615,20 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>idpatterns</t>
-        </is>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>10</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>T10R1</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>T10R1</t>
+          <t>Months between peaks (approximate/rounded)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>Months between peaks (approximate/rounded)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>

--- a/quizsheets/dsaide_idpatterns.xlsx
+++ b/quizsheets/dsaide_idpatterns.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,25 +370,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>AppID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>TaskID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>RecordID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Record</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -405,20 +410,25 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>idpatterns</t>
+        </is>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>T2R1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Number susceptibles at end of simulation</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>Number susceptibles at end of simulation (A)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -435,20 +445,25 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>idpatterns</t>
+        </is>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>T3R1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Number susceptible at end of simulation for _n=2_ and _m=0.002_</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>Total number susceptible at end of simulation for _n=2_ and _m=0.002_</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -465,20 +480,25 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>idpatterns</t>
+        </is>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>T3R2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Number susceptible at end of simulation for _n=6_ and _m=0.003_</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>Total number susceptible at end of simulation for _n=6_ and _m=0.003_</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -495,20 +515,25 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>idpatterns</t>
+        </is>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>T6R1</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Number of susceptible at end of simulation, 10 months immunity</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -525,20 +550,25 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>idpatterns</t>
+        </is>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>T6R2</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Number of infected at end of simulation, 10 months immunity</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -555,20 +585,25 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>idpatterns</t>
+        </is>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>T6R3</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Number of susceptible at end of simulation, 20 months immunity</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -585,20 +620,25 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>idpatterns</t>
+        </is>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>T6R4</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Number of infected at end of simulation, 20 months immunity</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -615,20 +655,25 @@
           <t>ID Patterns</t>
         </is>
       </c>
-      <c r="C9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>idpatterns</t>
+        </is>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>T10R1</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Months between peaks (approximate/rounded)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>

--- a/quizsheets/dsaide_idpatterns.xlsx
+++ b/quizsheets/dsaide_idpatterns.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AppTitle</t>
+          <t>TaskID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TaskID</t>
+          <t>RecordID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RecordID</t>
+          <t>Record</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Record</t>
+          <t>Note</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -402,23 +397,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ID Patterns</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>2</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T2R1</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>Number susceptibles at end of simulation</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>Number susceptibles at end of simulation</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -432,23 +424,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ID Patterns</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>Number susceptible at end of simulation for _n=2_ and _m=0.002_</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Number susceptible at end of simulation for _n=2_ and _m=0.002_</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -462,23 +451,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ID Patterns</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>T3R2</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T3R2</t>
+          <t>Number susceptible at end of simulation for _n=6_ and _m=0.003_</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>Number susceptible at end of simulation for _n=6_ and _m=0.003_</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -492,23 +478,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ID Patterns</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>6</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>T6R1</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T6R1</t>
+          <t>Number of susceptible at end of simulation, 10 months immunity</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>Number of susceptible at end of simulation, 10 months immunity</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -522,23 +505,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ID Patterns</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>6</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>T6R2</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T6R2</t>
+          <t>Number of infected at end of simulation, 10 months immunity</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>Number of infected at end of simulation, 10 months immunity</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -552,23 +532,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ID Patterns</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>6</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>T6R3</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T6R3</t>
+          <t>Number of susceptible at end of simulation, 20 months immunity</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>Number of susceptible at end of simulation, 20 months immunity</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -582,23 +559,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ID Patterns</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>6</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>T6R4</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T6R4</t>
+          <t>Number of infected at end of simulation, 20 months immunity</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>Number of infected at end of simulation, 20 months immunity</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -612,23 +586,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ID Patterns</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>10</v>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>T10R1</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T10R1</t>
+          <t>Months between peaks (approximate/rounded)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>Months between peaks (approximate/rounded)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
